--- a/BOM/BOM-DB Library Template.xlsx
+++ b/BOM/BOM-DB Library Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\AD15\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/333901bce2bbf622/Documents/GitHub/OrbitNTNU-Component-Database/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5DCDC965F5C0D888DECFB9566863AA36DC2AFFEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD09B1B-F258-40E7-9557-9A16966F1528}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +406,7 @@
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,32 +706,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -743,7 +744,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -758,7 +759,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -778,7 +779,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -806,7 +807,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -822,7 +823,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="25" t="s">
         <v>12</v>
@@ -858,7 +859,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="26"/>
       <c r="C7" s="28"/>
@@ -874,7 +875,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="27"/>
       <c r="C8" s="29"/>
@@ -890,7 +891,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="26"/>
       <c r="C9" s="28"/>
@@ -906,7 +907,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="20"/>
@@ -922,7 +923,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -938,7 +939,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -954,7 +955,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -970,7 +971,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -986,7 +987,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1002,7 +1003,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1018,7 +1019,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1034,7 +1035,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1050,7 +1051,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1066,7 +1067,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1082,7 +1083,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1098,7 +1099,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1114,7 +1115,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1130,7 +1131,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1146,7 +1147,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1162,7 +1163,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1178,7 +1179,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1194,7 +1195,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1210,7 +1211,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1226,7 +1227,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1242,7 +1243,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1258,7 +1259,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1274,7 +1275,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1290,7 +1291,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1306,7 +1307,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1329,24 +1330,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
